--- a/Energy Consumption36.xlsx
+++ b/Energy Consumption36.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.64973238765894</v>
+        <v>2.431696818617393</v>
       </c>
       <c r="C2" t="n">
-        <v>2.511873549421126</v>
+        <v>1.674599064774749</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.244551013874844</v>
+        <v>3.007614532213715</v>
       </c>
       <c r="C3" t="n">
-        <v>4.85251649661182</v>
+        <v>3.984993748082846</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.529073850731619</v>
+        <v>5.854059708344627</v>
       </c>
       <c r="C4" t="n">
-        <v>6.911624744453476</v>
+        <v>6.489268202224746</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7.773963121245613</v>
+        <v>9.052376654460819</v>
       </c>
       <c r="C5" t="n">
-        <v>9.048070610813539</v>
+        <v>8.234356864579766</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>13.93435625559185</v>
+        <v>10.65228171639642</v>
       </c>
       <c r="C6" t="n">
-        <v>11.21211915698868</v>
+        <v>9.986666524096563</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15.75681469909656</v>
+        <v>12.79092742448272</v>
       </c>
       <c r="C7" t="n">
-        <v>12.99648155590753</v>
+        <v>12.14304170838767</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>17.15672977242662</v>
+        <v>14.01198498540949</v>
       </c>
       <c r="C8" t="n">
-        <v>15.66226044887756</v>
+        <v>14.41969045064456</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>18.19658687118324</v>
+        <v>14.94263752795537</v>
       </c>
       <c r="C9" t="n">
-        <v>17.86230831967553</v>
+        <v>16.39139445198223</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>18.79202376972002</v>
+        <v>15.1992433257655</v>
       </c>
       <c r="C10" t="n">
-        <v>19.98109797588567</v>
+        <v>18.05182920597896</v>
       </c>
     </row>
     <row r="11">
@@ -549,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>20.29397311803994</v>
+        <v>16.28431624865659</v>
       </c>
       <c r="C11" t="n">
-        <v>22.36767914853371</v>
+        <v>20.17413857306362</v>
       </c>
     </row>
     <row r="12">
@@ -560,10 +560,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>20.91979233576631</v>
+        <v>16.49394836035179</v>
       </c>
       <c r="C12" t="n">
-        <v>24.55929033627373</v>
+        <v>22.14556670371766</v>
       </c>
     </row>
     <row r="13">
@@ -571,10 +571,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>21.11569927679524</v>
+        <v>19.22949956528216</v>
       </c>
       <c r="C13" t="n">
-        <v>26.98661953472513</v>
+        <v>24.10719449608797</v>
       </c>
     </row>
     <row r="14">
@@ -582,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>21.737117477222</v>
+        <v>27.85341600608195</v>
       </c>
       <c r="C14" t="n">
-        <v>29.18561874211512</v>
+        <v>26.24593323884858</v>
       </c>
     </row>
     <row r="15">
@@ -593,10 +593,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>22.66888977601516</v>
+        <v>32.73780626499064</v>
       </c>
       <c r="C15" t="n">
-        <v>31.62753057044856</v>
+        <v>27.9510554652646</v>
       </c>
     </row>
     <row r="16">
@@ -604,10 +604,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>25.69319331166447</v>
+        <v>34.23868408370404</v>
       </c>
       <c r="C16" t="n">
-        <v>34.03555421784949</v>
+        <v>30.27125258116521</v>
       </c>
     </row>
     <row r="17">
@@ -615,10 +615,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>27.66387919918001</v>
+        <v>35.41211055860812</v>
       </c>
       <c r="C17" t="n">
-        <v>36.27164693308853</v>
+        <v>32.09976626311879</v>
       </c>
     </row>
     <row r="18">
@@ -626,10 +626,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>29.12210226123327</v>
+        <v>36.69596135919109</v>
       </c>
       <c r="C18" t="n">
-        <v>38.39861516257996</v>
+        <v>34.37236182290327</v>
       </c>
     </row>
     <row r="19">
@@ -637,10 +637,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>30.15176694507145</v>
+        <v>38.12030398132588</v>
       </c>
       <c r="C19" t="n">
-        <v>40.52434491480785</v>
+        <v>36.01648844162155</v>
       </c>
     </row>
     <row r="20">
@@ -648,10 +648,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>37.59823240992621</v>
+        <v>39.16341522200401</v>
       </c>
       <c r="C20" t="n">
-        <v>42.4386224093133</v>
+        <v>38.62341746199056</v>
       </c>
     </row>
     <row r="21">
@@ -659,10 +659,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>40.74738569170034</v>
+        <v>40.71825625400218</v>
       </c>
       <c r="C21" t="n">
-        <v>44.98460629642397</v>
+        <v>41.11153218194475</v>
       </c>
     </row>
     <row r="22">
@@ -670,10 +670,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>41.75122501548547</v>
+        <v>44.64775902076117</v>
       </c>
       <c r="C22" t="n">
-        <v>47.22014464449516</v>
+        <v>43.33549247313314</v>
       </c>
     </row>
     <row r="23">
@@ -681,10 +681,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>41.97270124561672</v>
+        <v>46.59940782102131</v>
       </c>
       <c r="C23" t="n">
-        <v>49.41340589217184</v>
+        <v>45.22238845298661</v>
       </c>
     </row>
     <row r="24">
@@ -692,10 +692,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>42.67938651216328</v>
+        <v>49.84312402721868</v>
       </c>
       <c r="C24" t="n">
-        <v>51.64942434212757</v>
+        <v>48.00894816927949</v>
       </c>
     </row>
     <row r="25">
@@ -703,10 +703,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>44.5212649928755</v>
+        <v>50.22276708884628</v>
       </c>
       <c r="C25" t="n">
-        <v>53.51746980183363</v>
+        <v>49.86270241209153</v>
       </c>
     </row>
     <row r="26">
@@ -714,10 +714,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>47.1830597673922</v>
+        <v>53.67304836397857</v>
       </c>
       <c r="C26" t="n">
-        <v>55.55596960755044</v>
+        <v>52.5684273540824</v>
       </c>
     </row>
     <row r="27">
@@ -725,10 +725,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>49.45139677476946</v>
+        <v>57.40189534648996</v>
       </c>
       <c r="C27" t="n">
-        <v>57.60365420978854</v>
+        <v>54.5802741726667</v>
       </c>
     </row>
     <row r="28">
@@ -736,10 +736,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>52.24282270681186</v>
+        <v>58.78797062809473</v>
       </c>
       <c r="C28" t="n">
-        <v>59.91205851507162</v>
+        <v>56.42207170184363</v>
       </c>
     </row>
     <row r="29">
@@ -747,10 +747,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>53.39423074438702</v>
+        <v>61.26257758814375</v>
       </c>
       <c r="C29" t="n">
-        <v>61.71831176561132</v>
+        <v>59.26344984936472</v>
       </c>
     </row>
     <row r="30">
@@ -758,10 +758,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>58.49698479350586</v>
+        <v>63.5182907454618</v>
       </c>
       <c r="C30" t="n">
-        <v>63.9591761991426</v>
+        <v>61.32844623626853</v>
       </c>
     </row>
     <row r="31">
@@ -769,10 +769,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>60.17638634124213</v>
+        <v>68.385957980635</v>
       </c>
       <c r="C31" t="n">
-        <v>66.37170157430052</v>
+        <v>63.31042775792989</v>
       </c>
     </row>
     <row r="32">
@@ -780,10 +780,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>62.86411764037783</v>
+        <v>71.38338409566147</v>
       </c>
       <c r="C32" t="n">
-        <v>68.45924490784027</v>
+        <v>65.15172631515384</v>
       </c>
     </row>
     <row r="33">
@@ -791,10 +791,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>63.20638792466096</v>
+        <v>72.36999207921843</v>
       </c>
       <c r="C33" t="n">
-        <v>70.55622477216264</v>
+        <v>67.04107793064907</v>
       </c>
     </row>
     <row r="34">
@@ -802,10 +802,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>64.11494580451117</v>
+        <v>73.21514856293743</v>
       </c>
       <c r="C34" t="n">
-        <v>72.46648451587808</v>
+        <v>68.91723381964916</v>
       </c>
     </row>
     <row r="35">
@@ -813,10 +813,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>64.99688560890878</v>
+        <v>73.98281501822837</v>
       </c>
       <c r="C35" t="n">
-        <v>74.95221063074234</v>
+        <v>71.27747138957832</v>
       </c>
     </row>
     <row r="36">
@@ -824,10 +824,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>72.73069116605016</v>
+        <v>76.03595283560945</v>
       </c>
       <c r="C36" t="n">
-        <v>77.25787748736191</v>
+        <v>74.17458275838875</v>
       </c>
     </row>
     <row r="37">
@@ -835,10 +835,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>77.51666606629713</v>
+        <v>79.9357122905369</v>
       </c>
       <c r="C37" t="n">
-        <v>79.48663602863903</v>
+        <v>76.00120348587149</v>
       </c>
     </row>
     <row r="38">
@@ -846,10 +846,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>78.30522357485013</v>
+        <v>81.41384833472864</v>
       </c>
       <c r="C38" t="n">
-        <v>81.55059979268889</v>
+        <v>77.63429882872356</v>
       </c>
     </row>
     <row r="39">
@@ -857,10 +857,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>78.67356365142615</v>
+        <v>82.74767445380279</v>
       </c>
       <c r="C39" t="n">
-        <v>83.70204531415992</v>
+        <v>80.23771661791326</v>
       </c>
     </row>
     <row r="40">
@@ -868,10 +868,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>80.48474335722152</v>
+        <v>83.277899877884</v>
       </c>
       <c r="C40" t="n">
-        <v>86.22591196327606</v>
+        <v>82.66403401824664</v>
       </c>
     </row>
     <row r="41">
@@ -879,10 +879,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>82.93041677559934</v>
+        <v>83.93942891712523</v>
       </c>
       <c r="C41" t="n">
-        <v>87.91501827504517</v>
+        <v>84.69859280291925</v>
       </c>
     </row>
     <row r="42">
@@ -890,10 +890,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>83.29677409403921</v>
+        <v>88.35446693740843</v>
       </c>
       <c r="C42" t="n">
-        <v>90.32337373769793</v>
+        <v>86.90955604336531</v>
       </c>
     </row>
     <row r="43">
@@ -901,10 +901,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>87.59576921995453</v>
+        <v>89.98424039777574</v>
       </c>
       <c r="C43" t="n">
-        <v>92.16097190507496</v>
+        <v>88.93354753075404</v>
       </c>
     </row>
     <row r="44">
@@ -912,10 +912,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>88.25024664391287</v>
+        <v>90.96418754052027</v>
       </c>
       <c r="C44" t="n">
-        <v>94.1210720596046</v>
+        <v>90.84001761490315</v>
       </c>
     </row>
     <row r="45">
@@ -923,10 +923,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>92.4250292981646</v>
+        <v>94.03486452489147</v>
       </c>
       <c r="C45" t="n">
-        <v>96.56494911780094</v>
+        <v>93.54530125549694</v>
       </c>
     </row>
     <row r="46">
@@ -934,10 +934,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>93.52308930481418</v>
+        <v>94.97025942447965</v>
       </c>
       <c r="C46" t="n">
-        <v>98.70610898551166</v>
+        <v>95.605371126582</v>
       </c>
     </row>
     <row r="47">
@@ -945,10 +945,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>94.66727643022332</v>
+        <v>95.13396070046596</v>
       </c>
       <c r="C47" t="n">
-        <v>100.8916984110313</v>
+        <v>97.49886596242141</v>
       </c>
     </row>
     <row r="48">
@@ -956,21 +956,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>95.87628283560967</v>
+        <v>99.4846855292158</v>
       </c>
       <c r="C48" t="n">
-        <v>103.0745690835674</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>98.74997301974493</v>
-      </c>
-      <c r="C49" t="n">
-        <v>105.3915482720679</v>
+        <v>99.55988490752101</v>
       </c>
     </row>
   </sheetData>
